--- a/dashboards_v2/Purchasing_Dashboard.xlsx
+++ b/dashboards_v2/Purchasing_Dashboard.xlsx
@@ -7,11 +7,12 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SUPPLIER_CONFIG" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="COST_ANALYSIS" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="MRP_ENGINE" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CASH_FLOW_PREVIEW" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="UPLOAD_READY_PROCUREMENT" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SUPPLIER CONFIG" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="COST ANALYSIS" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="MRP ENGINE" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CASH FLOW PREVIEW" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="UPLOAD READY PROCUREMENT" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="CROSS REFERENCE" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -286,12 +287,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'MRP_ENGINE'!$B$5:$I$5</f>
+              <f>'MRP ENGINE'!$B$5:$I$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'MRP_ENGINE'!$B$14:$I$14</f>
+              <f>'MRP ENGINE'!$B$14:$I$14</f>
             </numRef>
           </val>
         </ser>
@@ -316,12 +317,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'MRP_ENGINE'!$B$5:$I$5</f>
+              <f>'MRP ENGINE'!$B$5:$I$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'MRP_ENGINE'!$B$26:$I$26</f>
+              <f>'MRP ENGINE'!$B$26:$I$26</f>
             </numRef>
           </val>
         </ser>
@@ -349,12 +350,12 @@
           </marker>
           <cat>
             <numRef>
-              <f>'MRP_ENGINE'!$B$5:$I$5</f>
+              <f>'MRP ENGINE'!$B$5:$I$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'MRP_ENGINE'!$B$40:$I$40</f>
+              <f>'MRP ENGINE'!$B$40:$I$40</f>
             </numRef>
           </val>
         </ser>
@@ -459,12 +460,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'CASH_FLOW_PREVIEW'!$B$5:$I$5</f>
+              <f>'CASH FLOW PREVIEW'!$B$5:$I$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'CASH_FLOW_PREVIEW'!$B$6:$I$6</f>
+              <f>'CASH FLOW PREVIEW'!$B$6:$I$6</f>
             </numRef>
           </val>
         </ser>
@@ -481,12 +482,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'CASH_FLOW_PREVIEW'!$B$5:$I$5</f>
+              <f>'CASH FLOW PREVIEW'!$B$5:$I$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'CASH_FLOW_PREVIEW'!$B$7:$I$7</f>
+              <f>'CASH FLOW PREVIEW'!$B$7:$I$7</f>
             </numRef>
           </val>
         </ser>
@@ -503,12 +504,12 @@
           </spPr>
           <cat>
             <numRef>
-              <f>'CASH_FLOW_PREVIEW'!$B$5:$I$5</f>
+              <f>'CASH FLOW PREVIEW'!$B$5:$I$5</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'CASH_FLOW_PREVIEW'!$B$8:$I$8</f>
+              <f>'CASH FLOW PREVIEW'!$B$8:$I$8</f>
             </numRef>
           </val>
         </ser>
@@ -1546,32 +1547,40 @@
     <row r="6">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>Target Production</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6" t="n">
-        <v>0</v>
+          <t>Target Production (from Production Plan)</t>
+        </is>
+      </c>
+      <c r="B6" s="6">
+        <f>'CROSS REFERENCE'!B11</f>
+        <v/>
+      </c>
+      <c r="C6" s="6">
+        <f>'CROSS REFERENCE'!B11</f>
+        <v/>
+      </c>
+      <c r="D6" s="6">
+        <f>'CROSS REFERENCE'!B11</f>
+        <v/>
+      </c>
+      <c r="E6" s="6">
+        <f>'CROSS REFERENCE'!B11</f>
+        <v/>
+      </c>
+      <c r="F6" s="6">
+        <f>'CROSS REFERENCE'!B11</f>
+        <v/>
+      </c>
+      <c r="G6" s="6">
+        <f>'CROSS REFERENCE'!B11</f>
+        <v/>
+      </c>
+      <c r="H6" s="6">
+        <f>'CROSS REFERENCE'!B11</f>
+        <v/>
+      </c>
+      <c r="I6" s="6">
+        <f>'CROSS REFERENCE'!B11</f>
+        <v/>
       </c>
     </row>
     <row r="9">
@@ -4402,4 +4411,116 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>CROSS-REFERENCE SUMMARY</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Upstream data from Production Dashboard</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="inlineStr">
+        <is>
+          <t>PRODUCTION PLAN</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="13" t="inlineStr">
+        <is>
+          <t>Zone</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>Target/FN</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Center</t>
+        </is>
+      </c>
+      <c r="B6" s="5" t="n">
+        <v>31200</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="5" t="inlineStr">
+        <is>
+          <t>West</t>
+        </is>
+      </c>
+      <c r="B7" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="5" t="inlineStr">
+        <is>
+          <t>North</t>
+        </is>
+      </c>
+      <c r="B8" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="5" t="inlineStr">
+        <is>
+          <t>East</t>
+        </is>
+      </c>
+      <c r="B9" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="5" t="inlineStr">
+        <is>
+          <t>South</t>
+        </is>
+      </c>
+      <c r="B10" s="5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="inlineStr">
+        <is>
+          <t>TOTAL</t>
+        </is>
+      </c>
+      <c r="B11" s="21" t="n">
+        <v>31200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/dashboards_v2/Purchasing_Dashboard.xlsx
+++ b/dashboards_v2/Purchasing_Dashboard.xlsx
@@ -1007,7 +1007,7 @@
         <v>0</v>
       </c>
       <c r="D6" s="7" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="E6" s="6" t="n">
         <v>0</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="D7" s="7" t="n">
-        <v>15</v>
+        <v>100</v>
       </c>
       <c r="E7" s="6" t="n">
         <v>0</v>
@@ -1055,7 +1055,7 @@
         <v>0</v>
       </c>
       <c r="D8" s="7" t="n">
-        <v>15</v>
+        <v>140</v>
       </c>
       <c r="E8" s="6" t="n">
         <v>0</v>
@@ -1079,7 +1079,7 @@
         <v>0</v>
       </c>
       <c r="D9" s="7" t="n">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="E9" s="6" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="D10" s="7" t="n">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="E10" s="6" t="n">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="D11" s="7" t="n">
-        <v>25</v>
+        <v>370</v>
       </c>
       <c r="E11" s="6" t="n">
         <v>0</v>
@@ -1167,10 +1167,10 @@
         </is>
       </c>
       <c r="B16" s="7" t="n">
-        <v>2</v>
+        <v>60</v>
       </c>
       <c r="C16" s="6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
@@ -1180,10 +1180,10 @@
         </is>
       </c>
       <c r="B17" s="7" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="C17" s="6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="18">
@@ -1193,10 +1193,10 @@
         </is>
       </c>
       <c r="B18" s="7" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="C18" s="6" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19">
@@ -1206,10 +1206,10 @@
         </is>
       </c>
       <c r="B19" s="7" t="n">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="C19" s="6" t="n">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20">
@@ -1219,10 +1219,10 @@
         </is>
       </c>
       <c r="B20" s="7" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="21">
@@ -1232,10 +1232,10 @@
         </is>
       </c>
       <c r="B21" s="7" t="n">
-        <v>2</v>
+        <v>28</v>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0</v>
+        <v>150</v>
       </c>
     </row>
   </sheetData>
@@ -1399,11 +1399,11 @@
         </is>
       </c>
       <c r="B24" s="14">
-        <f>AVERAGE(SUPPLIER_CONFIG!D6:D8)</f>
+        <f>AVERAGE('SUPPLIER CONFIG'!D6:D8)</f>
         <v/>
       </c>
       <c r="C24" s="14" t="n">
-        <v>15</v>
+        <v>125</v>
       </c>
       <c r="D24" s="15">
         <f>IF(C24&gt;0, (B24-C24)/C24, 0)</f>
@@ -1421,11 +1421,11 @@
         </is>
       </c>
       <c r="B25" s="14">
-        <f>AVERAGE(SUPPLIER_CONFIG!D9:D11)</f>
+        <f>AVERAGE('SUPPLIER CONFIG'!D9:D11)</f>
         <v/>
       </c>
       <c r="C25" s="14" t="n">
-        <v>25</v>
+        <v>330</v>
       </c>
       <c r="D25" s="15">
         <f>IF(C25&gt;0, (B25-C25)/C25, 0)</f>
@@ -2246,35 +2246,35 @@
         </is>
       </c>
       <c r="B6" s="9">
-        <f>MRP_ENGINE!B18+MRP_ENGINE!B30</f>
+        <f>'MRP ENGINE'!B18+'MRP ENGINE'!B30</f>
         <v/>
       </c>
       <c r="C6" s="9">
-        <f>MRP_ENGINE!C18+MRP_ENGINE!C30</f>
+        <f>'MRP ENGINE'!C18+'MRP ENGINE'!C30</f>
         <v/>
       </c>
       <c r="D6" s="9">
-        <f>MRP_ENGINE!D18+MRP_ENGINE!D30</f>
+        <f>'MRP ENGINE'!D18+'MRP ENGINE'!D30</f>
         <v/>
       </c>
       <c r="E6" s="9">
-        <f>MRP_ENGINE!E18+MRP_ENGINE!E30</f>
+        <f>'MRP ENGINE'!E18+'MRP ENGINE'!E30</f>
         <v/>
       </c>
       <c r="F6" s="9">
-        <f>MRP_ENGINE!F18+MRP_ENGINE!F30</f>
+        <f>'MRP ENGINE'!F18+'MRP ENGINE'!F30</f>
         <v/>
       </c>
       <c r="G6" s="9">
-        <f>MRP_ENGINE!G18+MRP_ENGINE!G30</f>
+        <f>'MRP ENGINE'!G18+'MRP ENGINE'!G30</f>
         <v/>
       </c>
       <c r="H6" s="9">
-        <f>MRP_ENGINE!H18+MRP_ENGINE!H30</f>
+        <f>'MRP ENGINE'!H18+'MRP ENGINE'!H30</f>
         <v/>
       </c>
       <c r="I6" s="9">
-        <f>MRP_ENGINE!I18+MRP_ENGINE!I30</f>
+        <f>'MRP ENGINE'!I18+'MRP ENGINE'!I30</f>
         <v/>
       </c>
       <c r="J6" s="9">
@@ -2289,35 +2289,35 @@
         </is>
       </c>
       <c r="B7" s="9">
-        <f>MRP_ENGINE!B19+MRP_ENGINE!B31</f>
+        <f>'MRP ENGINE'!B19+'MRP ENGINE'!B31</f>
         <v/>
       </c>
       <c r="C7" s="9">
-        <f>MRP_ENGINE!C19+MRP_ENGINE!C31</f>
+        <f>'MRP ENGINE'!C19+'MRP ENGINE'!C31</f>
         <v/>
       </c>
       <c r="D7" s="9">
-        <f>MRP_ENGINE!D19+MRP_ENGINE!D31</f>
+        <f>'MRP ENGINE'!D19+'MRP ENGINE'!D31</f>
         <v/>
       </c>
       <c r="E7" s="9">
-        <f>MRP_ENGINE!E19+MRP_ENGINE!E31</f>
+        <f>'MRP ENGINE'!E19+'MRP ENGINE'!E31</f>
         <v/>
       </c>
       <c r="F7" s="9">
-        <f>MRP_ENGINE!F19+MRP_ENGINE!F31</f>
+        <f>'MRP ENGINE'!F19+'MRP ENGINE'!F31</f>
         <v/>
       </c>
       <c r="G7" s="9">
-        <f>MRP_ENGINE!G19+MRP_ENGINE!G31</f>
+        <f>'MRP ENGINE'!G19+'MRP ENGINE'!G31</f>
         <v/>
       </c>
       <c r="H7" s="9">
-        <f>MRP_ENGINE!H19+MRP_ENGINE!H31</f>
+        <f>'MRP ENGINE'!H19+'MRP ENGINE'!H31</f>
         <v/>
       </c>
       <c r="I7" s="9">
-        <f>MRP_ENGINE!I19+MRP_ENGINE!I31</f>
+        <f>'MRP ENGINE'!I19+'MRP ENGINE'!I31</f>
         <v/>
       </c>
       <c r="J7" s="9">
@@ -2332,35 +2332,35 @@
         </is>
       </c>
       <c r="B8" s="9">
-        <f>MRP_ENGINE!B20+MRP_ENGINE!B32</f>
+        <f>'MRP ENGINE'!B20+'MRP ENGINE'!B32</f>
         <v/>
       </c>
       <c r="C8" s="9">
-        <f>MRP_ENGINE!C20+MRP_ENGINE!C32</f>
+        <f>'MRP ENGINE'!C20+'MRP ENGINE'!C32</f>
         <v/>
       </c>
       <c r="D8" s="9">
-        <f>MRP_ENGINE!D20+MRP_ENGINE!D32</f>
+        <f>'MRP ENGINE'!D20+'MRP ENGINE'!D32</f>
         <v/>
       </c>
       <c r="E8" s="9">
-        <f>MRP_ENGINE!E20+MRP_ENGINE!E32</f>
+        <f>'MRP ENGINE'!E20+'MRP ENGINE'!E32</f>
         <v/>
       </c>
       <c r="F8" s="9">
-        <f>MRP_ENGINE!F20+MRP_ENGINE!F32</f>
+        <f>'MRP ENGINE'!F20+'MRP ENGINE'!F32</f>
         <v/>
       </c>
       <c r="G8" s="9">
-        <f>MRP_ENGINE!G20+MRP_ENGINE!G32</f>
+        <f>'MRP ENGINE'!G20+'MRP ENGINE'!G32</f>
         <v/>
       </c>
       <c r="H8" s="9">
-        <f>MRP_ENGINE!H20+MRP_ENGINE!H32</f>
+        <f>'MRP ENGINE'!H20+'MRP ENGINE'!H32</f>
         <v/>
       </c>
       <c r="I8" s="9">
-        <f>MRP_ENGINE!I20+MRP_ENGINE!I32</f>
+        <f>'MRP ENGINE'!I20+'MRP ENGINE'!I32</f>
         <v/>
       </c>
       <c r="J8" s="9">
@@ -2607,35 +2607,35 @@
         </is>
       </c>
       <c r="D6" s="6">
-        <f>MRP_ENGINE!B18</f>
+        <f>'MRP ENGINE'!B18</f>
         <v/>
       </c>
       <c r="E6" s="6">
-        <f>MRP_ENGINE!C18</f>
+        <f>'MRP ENGINE'!C18</f>
         <v/>
       </c>
       <c r="F6" s="6">
-        <f>MRP_ENGINE!D18</f>
+        <f>'MRP ENGINE'!D18</f>
         <v/>
       </c>
       <c r="G6" s="6">
-        <f>MRP_ENGINE!E18</f>
+        <f>'MRP ENGINE'!E18</f>
         <v/>
       </c>
       <c r="H6" s="6">
-        <f>MRP_ENGINE!F18</f>
+        <f>'MRP ENGINE'!F18</f>
         <v/>
       </c>
       <c r="I6" s="6">
-        <f>MRP_ENGINE!G18</f>
+        <f>'MRP ENGINE'!G18</f>
         <v/>
       </c>
       <c r="J6" s="6">
-        <f>MRP_ENGINE!H18</f>
+        <f>'MRP ENGINE'!H18</f>
         <v/>
       </c>
       <c r="K6" s="6">
-        <f>MRP_ENGINE!I18</f>
+        <f>'MRP ENGINE'!I18</f>
         <v/>
       </c>
       <c r="R6" s="5" t="inlineStr">
@@ -2674,35 +2674,35 @@
         </is>
       </c>
       <c r="D7" s="6">
-        <f>MRP_ENGINE!B30</f>
+        <f>'MRP ENGINE'!B30</f>
         <v/>
       </c>
       <c r="E7" s="6">
-        <f>MRP_ENGINE!C30</f>
+        <f>'MRP ENGINE'!C30</f>
         <v/>
       </c>
       <c r="F7" s="6">
-        <f>MRP_ENGINE!D30</f>
+        <f>'MRP ENGINE'!D30</f>
         <v/>
       </c>
       <c r="G7" s="6">
-        <f>MRP_ENGINE!E30</f>
+        <f>'MRP ENGINE'!E30</f>
         <v/>
       </c>
       <c r="H7" s="6">
-        <f>MRP_ENGINE!F30</f>
+        <f>'MRP ENGINE'!F30</f>
         <v/>
       </c>
       <c r="I7" s="6">
-        <f>MRP_ENGINE!G30</f>
+        <f>'MRP ENGINE'!G30</f>
         <v/>
       </c>
       <c r="J7" s="6">
-        <f>MRP_ENGINE!H30</f>
+        <f>'MRP ENGINE'!H30</f>
         <v/>
       </c>
       <c r="K7" s="6">
-        <f>MRP_ENGINE!I30</f>
+        <f>'MRP ENGINE'!I30</f>
         <v/>
       </c>
       <c r="R7" s="5" t="inlineStr">
@@ -2741,35 +2741,35 @@
         </is>
       </c>
       <c r="D8" s="6">
-        <f>MRP_ENGINE!B19</f>
+        <f>'MRP ENGINE'!B19</f>
         <v/>
       </c>
       <c r="E8" s="6">
-        <f>MRP_ENGINE!C19</f>
+        <f>'MRP ENGINE'!C19</f>
         <v/>
       </c>
       <c r="F8" s="6">
-        <f>MRP_ENGINE!D19</f>
+        <f>'MRP ENGINE'!D19</f>
         <v/>
       </c>
       <c r="G8" s="6">
-        <f>MRP_ENGINE!E19</f>
+        <f>'MRP ENGINE'!E19</f>
         <v/>
       </c>
       <c r="H8" s="6">
-        <f>MRP_ENGINE!F19</f>
+        <f>'MRP ENGINE'!F19</f>
         <v/>
       </c>
       <c r="I8" s="6">
-        <f>MRP_ENGINE!G19</f>
+        <f>'MRP ENGINE'!G19</f>
         <v/>
       </c>
       <c r="J8" s="6">
-        <f>MRP_ENGINE!H19</f>
+        <f>'MRP ENGINE'!H19</f>
         <v/>
       </c>
       <c r="K8" s="6">
-        <f>MRP_ENGINE!I19</f>
+        <f>'MRP ENGINE'!I19</f>
         <v/>
       </c>
       <c r="R8" s="5" t="inlineStr">
@@ -2808,35 +2808,35 @@
         </is>
       </c>
       <c r="D9" s="6">
-        <f>MRP_ENGINE!B31</f>
+        <f>'MRP ENGINE'!B31</f>
         <v/>
       </c>
       <c r="E9" s="6">
-        <f>MRP_ENGINE!C31</f>
+        <f>'MRP ENGINE'!C31</f>
         <v/>
       </c>
       <c r="F9" s="6">
-        <f>MRP_ENGINE!D31</f>
+        <f>'MRP ENGINE'!D31</f>
         <v/>
       </c>
       <c r="G9" s="6">
-        <f>MRP_ENGINE!E31</f>
+        <f>'MRP ENGINE'!E31</f>
         <v/>
       </c>
       <c r="H9" s="6">
-        <f>MRP_ENGINE!F31</f>
+        <f>'MRP ENGINE'!F31</f>
         <v/>
       </c>
       <c r="I9" s="6">
-        <f>MRP_ENGINE!G31</f>
+        <f>'MRP ENGINE'!G31</f>
         <v/>
       </c>
       <c r="J9" s="6">
-        <f>MRP_ENGINE!H31</f>
+        <f>'MRP ENGINE'!H31</f>
         <v/>
       </c>
       <c r="K9" s="6">
-        <f>MRP_ENGINE!I31</f>
+        <f>'MRP ENGINE'!I31</f>
         <v/>
       </c>
       <c r="R9" s="5" t="inlineStr">
@@ -2875,35 +2875,35 @@
         </is>
       </c>
       <c r="D10" s="6">
-        <f>MRP_ENGINE!B20</f>
+        <f>'MRP ENGINE'!B20</f>
         <v/>
       </c>
       <c r="E10" s="6">
-        <f>MRP_ENGINE!C20</f>
+        <f>'MRP ENGINE'!C20</f>
         <v/>
       </c>
       <c r="F10" s="6">
-        <f>MRP_ENGINE!D20</f>
+        <f>'MRP ENGINE'!D20</f>
         <v/>
       </c>
       <c r="G10" s="6">
-        <f>MRP_ENGINE!E20</f>
+        <f>'MRP ENGINE'!E20</f>
         <v/>
       </c>
       <c r="H10" s="6">
-        <f>MRP_ENGINE!F20</f>
+        <f>'MRP ENGINE'!F20</f>
         <v/>
       </c>
       <c r="I10" s="6">
-        <f>MRP_ENGINE!G20</f>
+        <f>'MRP ENGINE'!G20</f>
         <v/>
       </c>
       <c r="J10" s="6">
-        <f>MRP_ENGINE!H20</f>
+        <f>'MRP ENGINE'!H20</f>
         <v/>
       </c>
       <c r="K10" s="6">
-        <f>MRP_ENGINE!I20</f>
+        <f>'MRP ENGINE'!I20</f>
         <v/>
       </c>
       <c r="R10" s="5" t="inlineStr">
@@ -2942,35 +2942,35 @@
         </is>
       </c>
       <c r="D11" s="6">
-        <f>MRP_ENGINE!B32</f>
+        <f>'MRP ENGINE'!B32</f>
         <v/>
       </c>
       <c r="E11" s="6">
-        <f>MRP_ENGINE!C32</f>
+        <f>'MRP ENGINE'!C32</f>
         <v/>
       </c>
       <c r="F11" s="6">
-        <f>MRP_ENGINE!D32</f>
+        <f>'MRP ENGINE'!D32</f>
         <v/>
       </c>
       <c r="G11" s="6">
-        <f>MRP_ENGINE!E32</f>
+        <f>'MRP ENGINE'!E32</f>
         <v/>
       </c>
       <c r="H11" s="6">
-        <f>MRP_ENGINE!F32</f>
+        <f>'MRP ENGINE'!F32</f>
         <v/>
       </c>
       <c r="I11" s="6">
-        <f>MRP_ENGINE!G32</f>
+        <f>'MRP ENGINE'!G32</f>
         <v/>
       </c>
       <c r="J11" s="6">
-        <f>MRP_ENGINE!H32</f>
+        <f>'MRP ENGINE'!H32</f>
         <v/>
       </c>
       <c r="K11" s="6">
-        <f>MRP_ENGINE!I32</f>
+        <f>'MRP ENGINE'!I32</f>
         <v/>
       </c>
       <c r="R11" s="5" t="inlineStr">
@@ -4467,7 +4467,7 @@
         </is>
       </c>
       <c r="B6" s="5" t="n">
-        <v>31200</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -4517,7 +4517,7 @@
         </is>
       </c>
       <c r="B11" s="21" t="n">
-        <v>31200</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
